--- a/asset/csv/main.xlsx
+++ b/asset/csv/main.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA18952-E987-42E5-ABEF-95708D61398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E69B2-A711-4F9A-A4DE-23D8068F70EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="イスラム〈王朝名〉" sheetId="1" r:id="rId1"/>
     <sheet name="イスラム〈人物〉" sheetId="3" r:id="rId2"/>
+    <sheet name="古代インド〈まとめ〉" sheetId="5" r:id="rId3"/>
+    <sheet name="東南アジア（～近世）" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="313">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -2179,6 +2181,1432 @@
   </si>
   <si>
     <t>ウルク＝ベク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古代インド〈まとめ〉</t>
+    <rPh sb="0" eb="2">
+      <t>コダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クシャーナ朝最盛期の王</t>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイセイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カニシカ王</t>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンドラグプタ2世治下のグプタ朝に来朝した僧</t>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ライチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法顕</t>
+    <rPh sb="0" eb="2">
+      <t>ホッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時の中国の王朝は？法顕の著書名は？</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホッケン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>チョショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジャンター石窟寺院</t>
+    <rPh sb="6" eb="8">
+      <t>セックツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グプタ様式とはどのようなもの？</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴェーダを祭典とした祭式重視の宗教</t>
+    <rPh sb="5" eb="7">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>サイシキジュウシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バラモン教</t>
+    <rPh sb="4" eb="5">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最古のヴェーダの名前は？</t>
+    <rPh sb="0" eb="2">
+      <t>サイコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4回仏典結集した王</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ブッテンケッシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王朝名は？</t>
+    <rPh sb="0" eb="3">
+      <t>オウチョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グプタ朝</t>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3つの有名な詩の名前は？</t>
+    <rPh sb="3" eb="5">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バラモン教の祭式万能主義を批判した新宗教</t>
+    <rPh sb="4" eb="5">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>サイシキバンノウシュギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒハン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シンシュウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンスクリット文学が発展した時の王朝</t>
+    <rPh sb="7" eb="9">
+      <t>ブンガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッテン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グプタ様式の代表的例を1つ</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウシキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ダイヒョウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウパニシャッド哲学</t>
+    <rPh sb="7" eb="9">
+      <t>テツガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラージプート時代に来印した僧</t>
+    <rPh sb="6" eb="8">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>義浄</t>
+    <rPh sb="0" eb="2">
+      <t>ギジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時の中国の王朝は？義浄の著書名は？</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>チョショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハルシャ王</t>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウリヤ朝の初代の王</t>
+    <rPh sb="4" eb="5">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァルダナ朝の最初の王</t>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンドラグプタ王</t>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のちのカースト制度につながる階級身分制度</t>
+    <rPh sb="7" eb="9">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>カイキュウミブンセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァルナ（種姓）</t>
+    <rPh sb="5" eb="6">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グプタ朝の全盛期・最大版図の時の王</t>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ゼンセイキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハント</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンドラグプタ2世</t>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄奘･義浄が学んだ仏教学の研究機関</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ブッキョウガク</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ケンキュウキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナーランダー僧院</t>
+    <rPh sb="6" eb="8">
+      <t>ソウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄奘･義浄は何をした人？</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウリヤ朝の最盛期の時の王</t>
+    <rPh sb="4" eb="5">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイセイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アショーカ王</t>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大乗仏教を大成させた人の名前</t>
+    <rPh sb="0" eb="4">
+      <t>ダイジョウブッキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナーガールジュナ（竜樹）</t>
+    <rPh sb="9" eb="11">
+      <t>リュウジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時のインドの王朝は？</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァルダナ朝に来朝した僧</t>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ライチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄奘</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時の中国の王朝は？玄奘の著書名は？</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>チョショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インダス川中~下流域に栄えた文明</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カリュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インダス文明</t>
+    <rPh sb="4" eb="6">
+      <t>ブンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有名な2つの遺跡の名前は？</t>
+    <rPh sb="0" eb="2">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダルマによる統治　磨崖碑に刻んだ</t>
+    <rPh sb="6" eb="8">
+      <t>トウチ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>マガイヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁欲･苦行･不殺生を説いたヴァルナ制否定の宗教</t>
+    <rPh sb="0" eb="2">
+      <t>キンヨク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フセッショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイナ教</t>
+    <rPh sb="4" eb="5">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創始者は誰？</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3回仏典結集　スリランカ(セイロン島)に仏教を布教した王</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ブッテンケッシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブッキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東南アジア（～近世）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャワ島に成立したイスラーム王朝2つ</t>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マタラム王国･バンテン王国</t>
+    <rPh sb="4" eb="6">
+      <t>オウコク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前111年~　漢による支配を受けた国の名前</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南越</t>
+    <rPh sb="0" eb="2">
+      <t>ナンエツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルマ人最初の王朝　英との戦争に敗北し滅亡</t>
+    <rPh sb="3" eb="4">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンバウン朝</t>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英との戦争の名前は？</t>
+    <rPh sb="0" eb="1">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大乗仏教が主　都パレンバンを中心に海上交易で繁栄した</t>
+    <rPh sb="0" eb="4">
+      <t>ダイジョウブッキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>カイジョウコウエキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュリーヴィジャヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルマの王朝　上座部仏教を普及させた</t>
+    <rPh sb="4" eb="6">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>ジョウザブブッキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パガン朝</t>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字をもとに作られた字喃を考案した王朝</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウアン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳朝</t>
+    <rPh sb="0" eb="2">
+      <t>チンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明の支配から独立して建国された　チャンパーを併合した</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンコク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黎朝</t>
+    <rPh sb="0" eb="2">
+      <t>レイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支配した明の皇帝は誰？</t>
+    <rPh sb="0" eb="2">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支配したの漢の皇帝は誰？</t>
+    <rPh sb="0" eb="2">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北部ベトナムの王朝　朱子学が発達</t>
+    <rPh sb="0" eb="2">
+      <t>ホクブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュシガク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海峡の海洋交易で繁栄　1511年に葡に占領された</t>
+    <rPh sb="0" eb="2">
+      <t>カイキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カイヨウコウエキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マラッカ王国</t>
+    <rPh sb="4" eb="6">
+      <t>オウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8C-9C　ボロブドゥールを建造</t>
+    <rPh sb="14" eb="16">
+      <t>ケンゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャイレンドラ朝</t>
+    <rPh sb="7" eb="8">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボロブドゥールはどの宗教･派の遺跡？</t>
+    <rPh sb="10" eb="12">
+      <t>シュウキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅鼓が出土した東南アジアの文化</t>
+    <rPh sb="0" eb="2">
+      <t>ドウコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウナン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドンソン文化</t>
+    <rPh sb="4" eb="6">
+      <t>ブンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6C-15C　クメール人がメコン川中流に建国</t>
+    <rPh sb="11" eb="12">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウリュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンボジア（真臘）</t>
+    <rPh sb="6" eb="8">
+      <t>シンロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メコン川下流域を支配　中･印との交易で繁栄した</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カリュウイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウエキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扶南</t>
+    <rPh sb="0" eb="2">
+      <t>フナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有名な遺跡の名前は？</t>
+    <rPh sb="0" eb="2">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャム人が建国　中継貿易で繁栄した</t>
+    <rPh sb="3" eb="4">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンコク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>チュウケイボウエキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何C-何C？</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扶南を滅ぼした　全盛期にはアンコール朝が成立した</t>
+    <rPh sb="0" eb="2">
+      <t>フナン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホロ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゼンセイキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルマの王朝　元の侵入で衰退し滅亡</t>
+    <rPh sb="4" eb="6">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スイタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1C-7C半ば　クメール人 or マレー人が建国した</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北部ベトナムの王朝　モンゴル軍の侵入を撃退</t>
+    <rPh sb="0" eb="2">
+      <t>ホクブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲキタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在まで続くタイの王朝</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラタナコーシン朝</t>
+    <rPh sb="7" eb="8">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイの王朝　タイ史上最大領域の王朝</t>
+    <rPh sb="3" eb="5">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>サイダイリョウイキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アユタヤ朝</t>
+    <rPh sb="4" eb="5">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14C末-1511年　東南アジア初の本格的イスラーム王国</t>
+    <rPh sb="3" eb="4">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウナン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ホンカクテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元の遠征を撃退したジャワ島東部の王国</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲキタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジャパヒト王国</t>
+    <rPh sb="6" eb="8">
+      <t>オウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宗教は何教？</t>
+    <rPh sb="0" eb="2">
+      <t>シュウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナニキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北部ベトナムの王朝　宋を撃退した</t>
+    <rPh sb="0" eb="2">
+      <t>ホクブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲキタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李朝</t>
+    <rPh sb="0" eb="2">
+      <t>リチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルマの王朝　ヨーロッパ人が来航　タイの王朝と抗争した</t>
+    <rPh sb="4" eb="6">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タウングー朝</t>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抗争したタイの王朝名は？</t>
+    <rPh sb="0" eb="2">
+      <t>コウソウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウチョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7C-8C　スマトラ島南東部にマレー人が建国した</t>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナントウブ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベトナムの王朝　清を宗主国として朝貢</t>
+    <rPh sb="5" eb="7">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ソウシュコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阮朝</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建国者の名前は？</t>
+    <rPh sb="0" eb="3">
+      <t>ケンコクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイの王朝　ビルマによって滅亡した</t>
+    <rPh sb="3" eb="5">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滅ぼしたビルマの王朝名は？</t>
+    <rPh sb="0" eb="1">
+      <t>ホロ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウチョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルマ人最初の統一王朝</t>
+    <rPh sb="3" eb="4">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トウイツオウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北部ベトナム初の長期王朝　チャンパーを攻撃した</t>
+    <rPh sb="0" eb="2">
+      <t>ホクブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>チョウキオウチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18Cの全盛期にはアユタヤ朝を滅ぼした</t>
+    <rPh sb="4" eb="7">
+      <t>ゼンセイキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黎朝の衰退に伴って反乱を起こして建国した</t>
+    <rPh sb="0" eb="2">
+      <t>レイチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西山政権（タイソン朝）</t>
+    <rPh sb="0" eb="2">
+      <t>ニシヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反乱の名前は？</t>
+    <rPh sb="0" eb="2">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3178,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0E5544-5DBE-4B01-BDD1-28BE7E47F4DE}">
   <dimension ref="A1:XFD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
@@ -3582,4 +5010,539 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9E11A6-1A8C-418D-9C47-DE9E2AA800AC}">
+  <dimension ref="A1:XFD21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3 16384:16384">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="XFD1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3 16384:16384">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3 16384:16384">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3 16384:16384">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3 16384:16384">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3 16384:16384">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3 16384:16384">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3 16384:16384">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3 16384:16384">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3 16384:16384">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3 16384:16384">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3 16384:16384">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3 16384:16384">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3 16384:16384">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3 16384:16384">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3 16384:16384">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941B8FF-E56E-49F1-974D-7914D3715AE1}">
+  <dimension ref="A1:XFD32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3 16384:16384">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="XFD1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3 16384:16384">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3 16384:16384">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3 16384:16384">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3 16384:16384">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3 16384:16384">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3 16384:16384">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3 16384:16384">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3 16384:16384">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3 16384:16384">
+      <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3 16384:16384">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3 16384:16384">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3 16384:16384">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3 16384:16384">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3 16384:16384">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3 16384:16384">
+      <c r="A16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/asset/csv/main.xlsx
+++ b/asset/csv/main.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E69B2-A711-4F9A-A4DE-23D8068F70EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526AD6C-D7EF-4F6B-9E76-374288E0D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="イスラム〈王朝名〉" sheetId="1" r:id="rId1"/>
     <sheet name="イスラム〈人物〉" sheetId="3" r:id="rId2"/>
     <sheet name="古代インド〈まとめ〉" sheetId="5" r:id="rId3"/>
     <sheet name="東南アジア（～近世）" sheetId="7" r:id="rId4"/>
+    <sheet name="中国〈年代・都〉" sheetId="9" r:id="rId5"/>
+    <sheet name="中国〈乱・戦争〉" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="407">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -3606,6 +3608,1139 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国〈年代・都〉</t>
+  </si>
+  <si>
+    <t>北魏</t>
+    <rPh sb="0" eb="2">
+      <t>ホクギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(386)~439-534　平城</t>
+    <rPh sb="14" eb="16">
+      <t>ヘイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>民族名は？</t>
+    <rPh sb="0" eb="3">
+      <t>ミンゾクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1616)~1636-1912　？→北京</t>
+    <rPh sb="19" eb="21">
+      <t>ペキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後漢</t>
+    <rPh sb="0" eb="2">
+      <t>ゴカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25-220　洛陽</t>
+    <rPh sb="7" eb="9">
+      <t>ラクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南朝（宋･斉･梁･陳）</t>
+    <rPh sb="0" eb="2">
+      <t>ナンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>420-589　建康</t>
+    <rPh sb="8" eb="10">
+      <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南宋</t>
+    <rPh sb="0" eb="2">
+      <t>ナンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1127-1276　臨安</t>
+    <rPh sb="10" eb="12">
+      <t>リンアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1271-1368　大都（北京）</t>
+    <rPh sb="10" eb="12">
+      <t>ダイト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ペキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>618-907　長安</t>
+    <rPh sb="8" eb="10">
+      <t>チョウアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-23　長安</t>
+    <rPh sb="5" eb="7">
+      <t>チョウアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五胡十六国時代</t>
+    <rPh sb="0" eb="5">
+      <t>ゴコジュウロッコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>304-439</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五胡の各民族の名称は？</t>
+    <rPh sb="0" eb="2">
+      <t>ゴコ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カクミンゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晋（西晋）</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>265-316　洛陽</t>
+    <rPh sb="8" eb="10">
+      <t>ラクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五代十国</t>
+    <rPh sb="0" eb="4">
+      <t>ゴダイジュッコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>907-979　後唐以外→開封　後唐→洛陽</t>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ラクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宋（北宋）</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホクソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>960-1127　開封</t>
+    <rPh sb="9" eb="11">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三国時代</t>
+    <rPh sb="0" eb="4">
+      <t>サンゴクジダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>220-280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三国の名称と都は？</t>
+    <rPh sb="0" eb="2">
+      <t>サンゴク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミヤコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前202-後8　長安</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隋</t>
+    <rPh sb="0" eb="1">
+      <t>ズイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>581-618　大興城</t>
+    <rPh sb="8" eb="11">
+      <t>タイコウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1368-1644　金陵→北京</t>
+    <rPh sb="10" eb="12">
+      <t>キンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ペキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東晋</t>
+    <rPh sb="0" eb="2">
+      <t>トウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>317-420　建康</t>
+    <rPh sb="8" eb="10">
+      <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前221-前206　咸陽</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国〈乱・戦争〉</t>
+  </si>
+  <si>
+    <t>前209-208　中国史上最初の農民反乱</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ノウミン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳勝･呉広の乱</t>
+    <rPh sb="0" eb="2">
+      <t>チンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつの王朝の時代？</t>
+    <rPh sb="3" eb="5">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前154　諸侯らによる反乱　その後郡県制へ移行</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>グンケンセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呉楚七国の乱</t>
+    <rPh sb="0" eb="1">
+      <t>クレ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18-27　農民反乱　その後新が滅亡</t>
+    <rPh sb="6" eb="10">
+      <t>ノウミンハンラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤眉の乱</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>166･169　宦官による儒教官僚への弾圧事件</t>
+    <rPh sb="8" eb="10">
+      <t>カンガン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ジュキョウカンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ダンアツジケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>党錮の禁</t>
+    <rPh sb="0" eb="2">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>184 太平道の張角が指導　その後王朝が滅亡</t>
+    <rPh sb="4" eb="6">
+      <t>タイヘイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄巾の乱</t>
+    <rPh sb="0" eb="2">
+      <t>コウキン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>290-306　一族諸王による反乱　その後五胡の侵入を招く</t>
+    <rPh sb="8" eb="10">
+      <t>イチゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゴコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八王の乱</t>
+    <rPh sb="0" eb="2">
+      <t>ハチオウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>755-763　節度使らの反乱　ウイグルの援助で鎮圧</t>
+    <rPh sb="8" eb="11">
+      <t>セツドシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>エンジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チンアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安史の乱</t>
+    <rPh sb="0" eb="2">
+      <t>アンシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>875-884　塩の密売人の反乱　その後王朝が滅亡</t>
+    <rPh sb="8" eb="9">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミツバイニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄巣の乱</t>
+    <rPh sb="0" eb="2">
+      <t>コウソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1115-1234　皇帝を連行し王朝が滅亡</t>
+    <rPh sb="10" eb="12">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>靖康の変</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1351-1366　白蓮教を中心とした農民反乱　その後王朝が滅亡</t>
+    <rPh sb="10" eb="12">
+      <t>ビャクレン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ノウミン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅巾の乱</t>
+    <rPh sb="0" eb="2">
+      <t>コウキン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1399-1402　建文帝に対しての反乱　その後新皇帝が即位</t>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>シンコウテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>靖難の役</t>
+    <rPh sb="0" eb="1">
+      <t>ヤスシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつの王朝の時代？　新皇帝の名前は？</t>
+    <rPh sb="3" eb="5">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シンコウテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1631-1644　農民反乱　その後明王朝が滅亡</t>
+    <rPh sb="10" eb="14">
+      <t>ノウミンハンラン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ミンオウチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李自成の乱</t>
+    <rPh sb="0" eb="3">
+      <t>リジセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1449　エセンが明軍を破り皇帝を捕らえた</t>
+    <rPh sb="9" eb="11">
+      <t>ミングン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土木の変</t>
+    <rPh sb="0" eb="2">
+      <t>ドボク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつの王朝の時代？　捕らえられた皇帝の名前は？</t>
+    <rPh sb="3" eb="5">
+      <t>オウチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1673-1681　呉三桂ら藩王の反乱</t>
+    <rPh sb="10" eb="13">
+      <t>ゴサンケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンオウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三藩の乱</t>
+    <rPh sb="0" eb="2">
+      <t>サンパン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1796-1804　宗教結社を中心とする農民反乱</t>
+    <rPh sb="10" eb="14">
+      <t>シュウキョウケッシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ノウミンハンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白蓮教徒の乱</t>
+    <rPh sb="0" eb="2">
+      <t>ビャクレン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1840-1842　密貿易に対する処置に対する英の強硬政策で勃発</t>
+    <rPh sb="10" eb="13">
+      <t>ミツボウエキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショチ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>キョウコウセイサク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ボッパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アヘン戦争</t>
+    <rPh sb="3" eb="5">
+      <t>センソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講和条約の名前と内容は？</t>
+    <rPh sb="0" eb="4">
+      <t>コウワジョウヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1856-1860　広州にてフランス人宣教師殺害事件が発生したことに対し出兵</t>
+    <rPh sb="10" eb="12">
+      <t>コウシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="26">
+      <t>ジンセンキョウシサツガイジケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュッペイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アロー戦争（第二次アヘン戦争）</t>
+    <rPh sb="3" eb="5">
+      <t>センソウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ダイニジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太平天国の乱</t>
+    <rPh sb="0" eb="4">
+      <t>タイヘイテンゴク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1851-1864　拝上帝会が中心となった農民反乱　「滅満興漢」をスローガン</t>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ノウミン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンラン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心となった人物は誰？　政策の内容は？　結果はどうなった？</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1884-1885　ベトナムの宗主権を放棄　仏のベトナム保護権を承認した</t>
+    <rPh sb="15" eb="18">
+      <t>ソウシュケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フツ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ホゴケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清仏戦争</t>
+    <rPh sb="0" eb="4">
+      <t>シンフツセンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1894-1895　甲午農民戦争に対する出兵が原因で勃発</t>
+    <rPh sb="10" eb="16">
+      <t>コウゴノウミンセンソウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュッペイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ボッパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日清戦争</t>
+    <rPh sb="0" eb="4">
+      <t>ニッシンセンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1898　西太后･袁世凱らによる反乱　光緒帝が幽閉された</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戊戌の政変</t>
+    <rPh sb="0" eb="2">
+      <t>ボジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1900-1901　キリスト教排斥運動が高まり勃発　「扶清滅洋」がスローガン</t>
+    <rPh sb="14" eb="19">
+      <t>キョウハイセキウンドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ボッパツ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>フシンメツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>義和団事件</t>
+    <rPh sb="0" eb="5">
+      <t>ギワダンジケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果はどうなった？</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1911-1912　清朝に対する反対運動　新しい国家が成立</t>
+    <rPh sb="10" eb="12">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ハンタイウンドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コッカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辛亥革命</t>
+    <rPh sb="0" eb="4">
+      <t>シンガイカクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3段階の革命を正しく説明できる？</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5238,7 +6373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941B8FF-E56E-49F1-974D-7914D3715AE1}">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
@@ -5545,4 +6680,459 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27EC704-3664-4405-A1E0-9525EE9DA794}">
+  <dimension ref="A1:XFD19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3 16384:16384">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="XFD1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3 16384:16384">
+      <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3 16384:16384">
+      <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3 16384:16384">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3 16384:16384">
+      <c r="A5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3 16384:16384">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3 16384:16384">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3 16384:16384">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3 16384:16384">
+      <c r="A9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3 16384:16384">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3 16384:16384">
+      <c r="A11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3 16384:16384">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3 16384:16384">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3 16384:16384">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3 16384:16384">
+      <c r="A15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3 16384:16384">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34F2D66-8E73-4977-8B28-4A59132D5771}">
+  <dimension ref="A1:XFD24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3 16384:16384">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="XFD1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3 16384:16384">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3 16384:16384">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3 16384:16384">
+      <c r="A4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3 16384:16384">
+      <c r="A5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3 16384:16384">
+      <c r="A6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3 16384:16384">
+      <c r="A7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3 16384:16384">
+      <c r="A8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3 16384:16384">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3 16384:16384">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3 16384:16384">
+      <c r="A11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3 16384:16384">
+      <c r="A12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3 16384:16384">
+      <c r="A13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3 16384:16384">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3 16384:16384">
+      <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3 16384:16384">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/asset/csv/main.xlsx
+++ b/asset/csv/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526AD6C-D7EF-4F6B-9E76-374288E0D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F983E-CFDC-4A6E-A4C1-C0E99F371A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="イスラム〈王朝名〉" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="東南アジア（～近世）" sheetId="7" r:id="rId4"/>
     <sheet name="中国〈年代・都〉" sheetId="9" r:id="rId5"/>
     <sheet name="中国〈乱・戦争〉" sheetId="10" r:id="rId6"/>
+    <sheet name="中国〈人物〉" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="545">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -4741,6 +4742,2477 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国〈人物〉</t>
+    <rPh sb="3" eb="5">
+      <t>ジンブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦　郡県制を全国に整備し中央集権体制化</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>グンケンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始皇帝</t>
+    <rPh sb="0" eb="3">
+      <t>シコウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法家思想を採用　焚書･坑儒で思想･言論を統制</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フンショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウジュ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンロン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦　貨幣･文字･度量衡の統一</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カヘイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ドリョウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統一貨幣の名前は？</t>
+    <rPh sb="0" eb="2">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カヘイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦　匈奴を討伐　万里の長城を修築</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウバツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦　南越を征服　南海郡など3郡を設置</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナンエツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイフク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ナンカイグン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　郡県制と封建制を併用した統治体制を創始</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>グンケンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ホウケンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トウチタイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劉邦（高祖）</t>
+    <rPh sb="0" eb="2">
+      <t>リュウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この統治方法の名前は？</t>
+    <rPh sb="2" eb="6">
+      <t>トウチホウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　匈奴に敗北　のちに対匈奴協調政策へ転換</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>キョウチョウセイサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匈奴の指導者は誰？</t>
+    <rPh sb="0" eb="2">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シドウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　張騫を西域に派遣　大月氏との対匈奴同盟を図る</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイイキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ダイゲッシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武帝</t>
+    <rPh sb="0" eb="2">
+      <t>ブテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同盟は成功？失敗？</t>
+    <rPh sb="0" eb="2">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　大宛（フェルガナ）を破り汗血馬を入手</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アテ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヤブ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アセ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　西域の支配を強固にした　河西4郡を設置</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイイキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　南越を征服　南海郡など南海9郡を設置</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナンエツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイフク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ナンカイグン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　衛氏朝鮮を征服　楽浪郡など朝鮮4郡を設置</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>エイシチョウセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイフク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ラクロウグン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　均輸法･平準法の実施</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キンユホウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヘイジュンホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>均輸法･平準法とはどのような法制？</t>
+    <rPh sb="0" eb="3">
+      <t>キンユホウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘイジュンホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　塩･鉄･酒の専売　五銖銭の発行</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センバイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ゴシュセン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　儒学の官学化を進めた　董仲舒の献策　五経博士の設置</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンガク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トウチュウジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ゴキョウハカセ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前漢　郷挙里選を開始</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キョウキョリセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郷挙里選とはどのような官吏登用制度？</t>
+    <rPh sb="0" eb="4">
+      <t>キョウキョリセン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カンリトウヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後漢　西域都護として西域経営で活躍</t>
+    <rPh sb="0" eb="2">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイイキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マモル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイイキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カツヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>班超</t>
+    <rPh sb="0" eb="2">
+      <t>ハンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後漢　班超の部下として大秦国へ派遣　のちにパレスティナ･シリアにまで至る</t>
+    <rPh sb="0" eb="2">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イタル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘英</t>
+    <rPh sb="0" eb="2">
+      <t>カンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <rPh sb="0" eb="2">
+      <t>ソウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魏　九品中正を開始</t>
+    <rPh sb="0" eb="1">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キュウヒンチュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曹丕（文帝）</t>
+    <rPh sb="0" eb="1">
+      <t>ツカサ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晋（西晋）　占田･課田法の実施</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>司馬炎（武帝）</t>
+    <rPh sb="0" eb="3">
+      <t>シバエン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北魏　寇謙之の献策で道教を国教化した</t>
+    <rPh sb="0" eb="2">
+      <t>ホクギ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウケンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コッキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太武帝</t>
+    <rPh sb="0" eb="3">
+      <t>タイブテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魏　屯田制を実施</t>
+    <rPh sb="0" eb="1">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トンデン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孝文帝</t>
+    <rPh sb="0" eb="3">
+      <t>コウブンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北魏　均田制を実施　豪族の大土地所有を抑えた　三長制を実施</t>
+    <rPh sb="0" eb="2">
+      <t>ホクギ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キンデンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウゾク</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ダイトチショユウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北魏　漢化政策を実施　漢民族との同化政策を進めた</t>
+    <rPh sb="0" eb="2">
+      <t>ホクギ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カンカセイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カンミンゾク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ドウカセイサク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北魏　都を平城から洛陽に遷都した</t>
+    <rPh sb="0" eb="2">
+      <t>ホクギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘイジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ラクヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隋　均田制･租庸調制･府兵制を実施　中央集権体制を築いた</t>
+    <rPh sb="0" eb="1">
+      <t>ズイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キンデンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソヨウチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フヘイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t>チュウオウシュウケンタイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楊堅（文帝）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隋　科挙を実施した</t>
+    <rPh sb="0" eb="1">
+      <t>ズイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カキョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隋　大運河の開削を行った</t>
+    <rPh sb="0" eb="1">
+      <t>ズイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ダイウンガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煬帝</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隋　高句麗遠征を実施するも失敗</t>
+    <rPh sb="0" eb="1">
+      <t>ズイ</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>コウクリエンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　もともとは隋の武将　唐を建国</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李淵</t>
+    <rPh sb="0" eb="2">
+      <t>リエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　三省六部の官制を敷いた　科挙を実施した</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>サンショウリクブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李世民（太宗）</t>
+    <rPh sb="0" eb="3">
+      <t>リセイミン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三省六部のそれぞれの名前と役割は？</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リクブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　地方の行政区画制度として州県制を実施</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>ギョウセイクカクセイド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュウケンセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　律令格式の法制を敷いた</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　均田制･租庸調制･府兵制を実施　中央集権体制を敷いた</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キンデンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソヨウチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フヘイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t>チュウオウシュウケンタイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　周辺異民族を都護府を設けて間接統治</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>シュウヘンイミンゾク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トゴフ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>カンセツトウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　中国皇帝と周辺諸国との形式的君臣関係による国際秩序を構築</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>チュウゴクコウテイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シュウヘンショコク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ケイシキテキ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>クンシンカンケイ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>コクサイチツジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この体制の名前は？</t>
+    <rPh sb="2" eb="4">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　高句麗を滅亡させた　西突厥･ベトナムを攻撃　唐の最大版図</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウクリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メツボウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニシトッケツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>サイダイハント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高宗</t>
+    <rPh sb="0" eb="2">
+      <t>コウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐→周　中国史上唯一の女帝　高宗の皇后</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>チュウゴクシジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ユイイツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即天武后</t>
+    <rPh sb="0" eb="2">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄宗</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　府兵制に代わる傭兵制度として募兵性を実施</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フヘイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウヘイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ボヘイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　辺境の募兵軍団の指揮官として節度使を設置</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ボヘイグンダン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シキカン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セツドシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　楊貴妃を溺愛　唐の弱体化を招く</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヨウキヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デキアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　タラス河畔の戦いで敗北　のちに西域支配が後退　製紙法の西伝を招く</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カハン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>セイイキシハイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>セイシホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイデン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>マネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　節度使による安史の乱を起こされる</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セツドシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アンシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北宋　文治主義を目指した　皇帝独裁体制を樹立</t>
+    <rPh sb="0" eb="2">
+      <t>ホクソウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ブンチシュギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>コウテイドクサイタイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>趙匡胤</t>
+    <rPh sb="0" eb="3">
+      <t>チョウキョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北宋　科挙に最終試験の殿試を設置</t>
+    <rPh sb="0" eb="2">
+      <t>ホクソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カキョ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>サイシュウシケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北宋　青苗法･市易法などで富国化を図る</t>
+    <rPh sb="0" eb="2">
+      <t>ホクソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フコク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王安石</t>
+    <rPh sb="0" eb="3">
+      <t>オウアンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北宋　旧法党と対立　富国強兵を目指した</t>
+    <rPh sb="0" eb="2">
+      <t>ホクソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウヘイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧法党の代表的人物は？</t>
+    <rPh sb="0" eb="3">
+      <t>キュウホウトウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ダイヒョウテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遼　モンゴル系契丹人の建国者</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ケイキッタンジン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ケンコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耶律阿保機</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アボ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金　ツングース系女真人の建国者</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ケイジョシンジン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケンコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完顔阿骨打</t>
+    <rPh sb="0" eb="5">
+      <t>ワンヤンアグダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンゴル帝国　ホラズム朝や西夏を滅ぼす　モンゴル部族を統一しカンに即位</t>
+    <rPh sb="4" eb="6">
+      <t>テイコク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チンギス＝カン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンゴル帝国　バトゥを西征に派遣　ワールシュタットの戦いで独･ポーランド連合軍を破る</t>
+    <rPh sb="4" eb="6">
+      <t>テイコク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>レンゴウグン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヤブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オゴデイ（オゴタイ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンゴル帝国　フレグ（フラグ）を西アジア遠征に派遣しアッバース朝を滅亡させる</t>
+    <rPh sb="4" eb="6">
+      <t>テイコク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>メツボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンケ＝カン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンゴル帝国　イル＝ハン国を建国</t>
+    <rPh sb="4" eb="6">
+      <t>テイコク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレグ（フラグ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元　都をカラコルムから大都（北京）に遷都　国号を元と改称</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダイト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ペキン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セント</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コクゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クビライ（フビライ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元　大理（雲南）を征服　パガン朝を衰退させる　吐蕃･高麗を属国化</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウンナン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイフク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スイタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウライ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ゾッコクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元　ジャワ･ベトナム･日本への遠征に失敗</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　明を建国　都を金陵（現･南京）に置く</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンコク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナンキン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洪武帝（太祖 / 朱元璋）</t>
+    <rPh sb="0" eb="3">
+      <t>コウブテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイソ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シュゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　皇帝独裁体制を確立　中書省を廃止し六部を皇帝直属化</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>コウテイドクサイタイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>チュウショショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リクブ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　明律･明令を制定　朱子学の官学化を進める</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミンレイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シュシガク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンガク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　里甲制･賦役黄冊･衛所制で民衆を支配</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>フエキコウサツ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>エイショセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　倭寇を取り締まるため民間貿易を禁止</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ミンカンボウエキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この政策の名前は？</t>
+    <rPh sb="2" eb="4">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　都を金陵から北京に遷都　紫禁城を造営</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ペキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セント</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シキンジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゾウエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永楽帝</t>
+    <rPh sb="0" eb="3">
+      <t>エイラクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　宰相･張居正の改革で財政再建･綱紀粛正を目指した</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>チョウキョセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイカク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ザイセイサイケン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>コウキシュクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>万暦帝</t>
+    <rPh sb="0" eb="1">
+      <t>ヨロズ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コヨミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　豊臣秀吉の朝鮮侵略に対し援軍を派遣　財政難に拍車をかけた</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>トヨトミヒデヨシ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>チョウセンシンリャク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エングン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ザイセイナン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヌルハチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後金　ツングース系女真人の建国者</t>
+    <rPh sb="0" eb="1">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ケンコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後金　八旗を創設　満州人社会をもとにした行政･軍事組織</t>
+    <rPh sb="0" eb="1">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウセツ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>マンシュウジンシャカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ギョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>グンジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　内モンゴル（チャハル）を征服　理藩院を設置</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイフク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホンタイジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　国号を清と改称　朝鮮を属国化</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コクゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ゾッコクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順治帝</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　呉三桂ら藩王の起こした三藩の乱を鎮圧</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ゴサンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンオウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンパン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チンアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>康熙帝</t>
+    <rPh sb="0" eb="3">
+      <t>コウキテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　鄭氏台湾を征服し中国統一</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイワン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイフク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>チュウゴクトウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　露のピョートル1世との間にネルチンスク条約を締結　国境を画定</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウヤク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイケツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コッキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　ジュンガル･青海に遠征</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アオウミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　イエズス会以外のキリスト教布教を禁止した</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　軍機処を設置　軍事･行政の最高機関</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>グンキショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>グンジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ギョウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>サイコウキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雍正帝</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウセイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　キリスト教布教を全面的に禁止</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キョウフキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　新疆の設置　欧州船の来航を広州一港に限定</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　拝上帝会を組織　「滅満興漢」をスローガンに太平天国の乱を起こす</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジョウテイカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミツル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイヘイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンゴク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洪秀全</t>
+    <rPh sb="0" eb="3">
+      <t>コウシュウゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　天京（南京）を都　天朝田畝制度を実施しようとした</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナンキン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ポ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　洋務運動を開始した中心人物2人</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ヨウムウンドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>チュウシンジンブツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曾国藩･李鴻章</t>
+    <rPh sb="0" eb="3">
+      <t>ソウコクハン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>リコウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋務運動とはどのような運動？</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウムウンドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終的に太平天国の乱はどうなった？</t>
+  </si>
+  <si>
+    <t>ネルチンスク条約の内容は？</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャフタ条約の内容は？</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　露とキャフタ条約を締結</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウヤク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　モンゴル･ベトナム･南海諸国に遠征　部下をアフリカまで遠征させた</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ナンカイショコク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南海遠征に行かせた部下は誰？</t>
+    <rPh sb="0" eb="2">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐　春と秋に徴税する両税法を献策した</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウゼイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>リョウゼイホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楊炎</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　明が滅亡したことで北京に遷都　緑営を設置</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メツボウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ペキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セント</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リョクエイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清　地丁銀制を実施</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チテイギン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明　両税法に代わり一条便法を実施　地税･丁税･労役などの諸税を一括銀納化</t>
+    <rPh sb="0" eb="1">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リョウゼイホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>イチジョウベンポウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ロウエキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6868,9 +9340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34F2D66-8E73-4977-8B28-4A59132D5771}">
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -7135,4 +9607,764 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42F329-265B-4516-8932-7F6F5DF91E5F}">
+  <dimension ref="A1:XFD86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3 16384:16384">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+      <c r="XFD1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3 16384:16384">
+      <c r="A2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3 16384:16384">
+      <c r="A3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3 16384:16384">
+      <c r="A4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3 16384:16384">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3 16384:16384">
+      <c r="A6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3 16384:16384">
+      <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3 16384:16384">
+      <c r="A8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3 16384:16384">
+      <c r="A9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3 16384:16384">
+      <c r="A10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3 16384:16384">
+      <c r="A11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3 16384:16384">
+      <c r="A12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3 16384:16384">
+      <c r="A13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3 16384:16384">
+      <c r="A14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3 16384:16384">
+      <c r="A15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3 16384:16384">
+      <c r="A16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>455</v>
+      </c>
+      <c r="B31" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" t="s">
+        <v>458</v>
+      </c>
+      <c r="C32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>462</v>
+      </c>
+      <c r="B35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>464</v>
+      </c>
+      <c r="B37" t="s">
+        <v>458</v>
+      </c>
+      <c r="C37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>466</v>
+      </c>
+      <c r="B38" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>468</v>
+      </c>
+      <c r="B39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>472</v>
+      </c>
+      <c r="B41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>474</v>
+      </c>
+      <c r="B43" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>475</v>
+      </c>
+      <c r="B44" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>540</v>
+      </c>
+      <c r="B45" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>476</v>
+      </c>
+      <c r="B46" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>478</v>
+      </c>
+      <c r="B47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>479</v>
+      </c>
+      <c r="B48" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B50" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>485</v>
+      </c>
+      <c r="B51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>487</v>
+      </c>
+      <c r="B52" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>489</v>
+      </c>
+      <c r="B53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>491</v>
+      </c>
+      <c r="B54" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>493</v>
+      </c>
+      <c r="B55" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>495</v>
+      </c>
+      <c r="B56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>497</v>
+      </c>
+      <c r="B57" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>498</v>
+      </c>
+      <c r="B58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>501</v>
+      </c>
+      <c r="B60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>502</v>
+      </c>
+      <c r="B61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>503</v>
+      </c>
+      <c r="B62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>504</v>
+      </c>
+      <c r="B63" t="s">
+        <v>500</v>
+      </c>
+      <c r="C63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>506</v>
+      </c>
+      <c r="B64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>538</v>
+      </c>
+      <c r="B65" t="s">
+        <v>507</v>
+      </c>
+      <c r="C65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>508</v>
+      </c>
+      <c r="B66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>544</v>
+      </c>
+      <c r="B67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>510</v>
+      </c>
+      <c r="B68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>512</v>
+      </c>
+      <c r="B69" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>513</v>
+      </c>
+      <c r="B70" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>514</v>
+      </c>
+      <c r="B71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>516</v>
+      </c>
+      <c r="B72" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>542</v>
+      </c>
+      <c r="B73" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>518</v>
+      </c>
+      <c r="B74" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>520</v>
+      </c>
+      <c r="B75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>543</v>
+      </c>
+      <c r="B76" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>521</v>
+      </c>
+      <c r="B77" t="s">
+        <v>519</v>
+      </c>
+      <c r="C77" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>522</v>
+      </c>
+      <c r="B78" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>523</v>
+      </c>
+      <c r="B79" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>524</v>
+      </c>
+      <c r="B80" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>537</v>
+      </c>
+      <c r="B81" t="s">
+        <v>525</v>
+      </c>
+      <c r="C81" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>526</v>
+      </c>
+      <c r="B82" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>527</v>
+      </c>
+      <c r="B83" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>528</v>
+      </c>
+      <c r="B84" t="s">
+        <v>529</v>
+      </c>
+      <c r="C84" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>530</v>
+      </c>
+      <c r="B85" t="s">
+        <v>529</v>
+      </c>
+      <c r="C85" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>531</v>
+      </c>
+      <c r="B86" t="s">
+        <v>532</v>
+      </c>
+      <c r="C86" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/asset/csv/main.xlsx
+++ b/asset/csv/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F983E-CFDC-4A6E-A4C1-C0E99F371A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC27BD-5F99-45BA-8D08-C2963EFD28DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="イスラム〈王朝名〉" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="545">
-  <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="544">
   <si>
     <t>イスラム〈王朝名〉</t>
     <rPh sb="5" eb="8">
@@ -4788,34 +4784,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>法家思想を採用　焚書･坑儒で思想･言論を統制</t>
-    <rPh sb="0" eb="2">
-      <t>ホウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フンショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウジュ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シソウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゲンロン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秦　貨幣･文字･度量衡の統一</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
@@ -7213,6 +7181,37 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦　法家思想を採用　焚書･坑儒で思想･言論を統制</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フンショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウジュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンロン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7539,11 +7538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -7552,649 +7551,646 @@
     <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3 16384:16384">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="XFD1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3 16384:16384">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3 16384:16384">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3 16384:16384">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3 16384:16384">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3 16384:16384">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3 16384:16384">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3 16384:16384">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3 16384:16384">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3 16384:16384">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3 16384:16384">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3 16384:16384">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3 16384:16384">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3 16384:16384">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3 16384:16384">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3 16384:16384">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
         <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
         <v>75</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>76</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
         <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
         <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
         <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
         <v>89</v>
-      </c>
-      <c r="B53" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
         <v>91</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
         <v>93</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
         <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
         <v>99</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
         <v>101</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
         <v>103</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
         <v>106</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>109</v>
-      </c>
-      <c r="C64" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
         <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
         <v>114</v>
-      </c>
-      <c r="B68" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s">
         <v>116</v>
-      </c>
-      <c r="B69" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
         <v>119</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>120</v>
-      </c>
-      <c r="C71" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8211,11 +8207,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0E5544-5DBE-4B01-BDD1-28BE7E47F4DE}">
-  <dimension ref="A1:XFD40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -8224,393 +8220,390 @@
     <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3 16384:16384">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
-      <c r="XFD1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3 16384:16384">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:3 16384:16384">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>127</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>128</v>
       </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3 16384:16384">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3 16384:16384">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3 16384:16384">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>133</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>134</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:3 16384:16384">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>136</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:3 16384:16384">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:3 16384:16384">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
         <v>141</v>
       </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:3 16384:16384">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>143</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>144</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:3 16384:16384">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3 16384:16384">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3 16384:16384">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3 16384:16384">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
         <v>153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3 16384:16384">
-      <c r="A15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3 16384:16384">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
         <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>163</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
         <v>165</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>166</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
         <v>168</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
         <v>171</v>
-      </c>
-      <c r="B23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" t="s">
         <v>176</v>
-      </c>
-      <c r="B27" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
         <v>179</v>
-      </c>
-      <c r="B29" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
         <v>182</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
         <v>184</v>
-      </c>
-      <c r="B33" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
         <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
         <v>190</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>191</v>
-      </c>
-      <c r="C37" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>194</v>
-      </c>
-      <c r="C38" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
         <v>196</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>197</v>
-      </c>
-      <c r="C39" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
         <v>199</v>
-      </c>
-      <c r="B40" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8621,11 +8614,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9E11A6-1A8C-418D-9C47-DE9E2AA800AC}">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -8634,205 +8627,202 @@
     <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3 16384:16384">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>201</v>
       </c>
-      <c r="XFD1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3 16384:16384">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:3 16384:16384">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:3 16384:16384">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3 16384:16384">
-      <c r="A5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3 16384:16384">
-      <c r="A6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3 16384:16384">
-      <c r="A7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3 16384:16384">
-      <c r="A8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="9" spans="1:3 16384:16384">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>221</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:3 16384:16384">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
         <v>225</v>
       </c>
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3 16384:16384">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="12" spans="1:3 16384:16384">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>227</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="13" spans="1:3 16384:16384">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>229</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="14" spans="1:3 16384:16384">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>231</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>232</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="15" spans="1:3 16384:16384">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>234</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="16" spans="1:3 16384:16384">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>236</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>237</v>
-      </c>
-      <c r="C16" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
         <v>239</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>240</v>
-      </c>
-      <c r="C17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" t="s">
         <v>242</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>243</v>
-      </c>
-      <c r="C18" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" t="s">
         <v>246</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>247</v>
-      </c>
-      <c r="C20" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8843,11 +8833,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941B8FF-E56E-49F1-974D-7914D3715AE1}">
-  <dimension ref="A1:XFD32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -8856,296 +8846,293 @@
     <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3 16384:16384">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>250</v>
       </c>
-      <c r="XFD1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3 16384:16384">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>251</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="3" spans="1:3 16384:16384">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>253</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>254</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="4" spans="1:3 16384:16384">
-      <c r="A4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3 16384:16384">
-      <c r="A5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3 16384:16384">
-      <c r="A6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3 16384:16384">
-      <c r="A7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3 16384:16384">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>264</v>
       </c>
-      <c r="B8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3 16384:16384">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>268</v>
       </c>
-      <c r="B9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3 16384:16384">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>269</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="11" spans="1:3 16384:16384">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>271</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>272</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="1:3 16384:16384">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>274</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="13" spans="1:3 16384:16384">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>276</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="14" spans="1:3 16384:16384">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>278</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>279</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="15" spans="1:3 16384:16384">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>281</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>282</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="16" spans="1:3 16384:16384">
-      <c r="A16" t="s">
-        <v>284</v>
-      </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" t="s">
         <v>288</v>
-      </c>
-      <c r="B20" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" t="s">
         <v>290</v>
-      </c>
-      <c r="B21" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" t="s">
         <v>293</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>294</v>
-      </c>
-      <c r="C23" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" t="s">
         <v>296</v>
-      </c>
-      <c r="B24" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" t="s">
         <v>298</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>299</v>
-      </c>
-      <c r="C25" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
         <v>302</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>303</v>
-      </c>
-      <c r="C27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" t="s">
         <v>305</v>
-      </c>
-      <c r="B28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C28" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" t="s">
         <v>310</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>311</v>
-      </c>
-      <c r="C32" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9156,11 +9143,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27EC704-3664-4405-A1E0-9525EE9DA794}">
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -9169,165 +9156,162 @@
     <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3 16384:16384">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>313</v>
       </c>
-      <c r="XFD1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3 16384:16384">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>314</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>315</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="3" spans="1:3 16384:16384">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>317</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="4" spans="1:3 16384:16384">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>319</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:3 16384:16384">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>321</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="6" spans="1:3 16384:16384">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>323</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="7" spans="1:3 16384:16384">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>325</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="8" spans="1:3 16384:16384">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>327</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="9" spans="1:3 16384:16384">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>329</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="10" spans="1:3 16384:16384">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>331</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>332</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="11" spans="1:3 16384:16384">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>334</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="12" spans="1:3 16384:16384">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>336</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="1:3 16384:16384">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>338</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="14" spans="1:3 16384:16384">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>340</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>341</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="15" spans="1:3 16384:16384">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>343</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="16" spans="1:3 16384:16384">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>345</v>
-      </c>
-      <c r="B16" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" t="s">
         <v>347</v>
-      </c>
-      <c r="B17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" t="s">
         <v>349</v>
-      </c>
-      <c r="B18" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" t="s">
         <v>351</v>
-      </c>
-      <c r="B19" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -9338,11 +9322,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34F2D66-8E73-4977-8B28-4A59132D5771}">
-  <dimension ref="A1:XFD24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -9351,256 +9335,253 @@
     <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3 16384:16384">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>353</v>
       </c>
-      <c r="XFD1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3 16384:16384">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>354</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>355</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="3" spans="1:3 16384:16384">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>358</v>
       </c>
-      <c r="C3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3 16384:16384">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>359</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:3 16384:16384">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>361</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>362</v>
       </c>
-      <c r="C5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3 16384:16384">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>363</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>364</v>
       </c>
-      <c r="C6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3 16384:16384">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>365</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>366</v>
       </c>
-      <c r="C7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3 16384:16384">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>367</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>368</v>
       </c>
-      <c r="C8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3 16384:16384">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>369</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>370</v>
       </c>
-      <c r="C9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3 16384:16384">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>371</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>372</v>
       </c>
-      <c r="C10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3 16384:16384">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>373</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>374</v>
       </c>
-      <c r="C11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3 16384:16384">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>375</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>376</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="13" spans="1:3 16384:16384">
-      <c r="A13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="14" spans="1:3 16384:16384">
-      <c r="A14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3 16384:16384">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>383</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>384</v>
       </c>
-      <c r="C15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3 16384:16384">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>385</v>
       </c>
-      <c r="B16" t="s">
-        <v>386</v>
-      </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
         <v>387</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>388</v>
-      </c>
-      <c r="C17" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" t="s">
         <v>390</v>
       </c>
-      <c r="B18" t="s">
-        <v>391</v>
-      </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" t="s">
         <v>393</v>
-      </c>
-      <c r="B19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C19" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B20" t="s">
         <v>395</v>
       </c>
-      <c r="B20" t="s">
-        <v>396</v>
-      </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" t="s">
         <v>397</v>
       </c>
-      <c r="B21" t="s">
-        <v>398</v>
-      </c>
       <c r="C21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" t="s">
         <v>399</v>
-      </c>
-      <c r="B22" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" t="s">
         <v>401</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>402</v>
-      </c>
-      <c r="C23" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
         <v>404</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>405</v>
-      </c>
-      <c r="C24" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -9611,11 +9592,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42F329-265B-4516-8932-7F6F5DF91E5F}">
-  <dimension ref="A1:XFD86"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.8984375" defaultRowHeight="18"/>
@@ -9624,743 +9605,740 @@
     <col min="2" max="8" width="40.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3 16384:16384">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>407</v>
       </c>
-      <c r="XFD1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3 16384:16384">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>408</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="3" spans="1:3 16384:16384">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" t="s">
         <v>410</v>
       </c>
-      <c r="B3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3 16384:16384">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>411</v>
       </c>
-      <c r="B4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="5" spans="1:3 16384:16384">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>413</v>
       </c>
-      <c r="B5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3 16384:16384">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>414</v>
       </c>
-      <c r="B6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3 16384:16384">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>415</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>416</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:3 16384:16384">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>418</v>
       </c>
-      <c r="B8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="9" spans="1:3 16384:16384">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>420</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>421</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="10" spans="1:3 16384:16384">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>423</v>
       </c>
-      <c r="B10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3 16384:16384">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>424</v>
       </c>
-      <c r="B11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3 16384:16384">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>425</v>
       </c>
-      <c r="B12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3 16384:16384">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" t="s">
         <v>426</v>
       </c>
-      <c r="B13" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3 16384:16384">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>427</v>
       </c>
-      <c r="B14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="15" spans="1:3 16384:16384">
-      <c r="A15" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3 16384:16384">
-      <c r="A16" t="s">
-        <v>430</v>
-      </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>455</v>
+      </c>
+      <c r="B32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" t="s">
         <v>457</v>
-      </c>
-      <c r="B32" t="s">
-        <v>458</v>
-      </c>
-      <c r="C32" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B38" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B39" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B41" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B42" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B45" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B48" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B49" t="s">
+        <v>478</v>
+      </c>
+      <c r="C49" t="s">
         <v>480</v>
-      </c>
-      <c r="C49" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B50" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B51" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B52" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B53" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B54" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B55" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B59" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B61" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B63" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B65" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C65" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B67" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B72" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B73" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B74" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B76" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B77" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C77" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B78" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B80" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C81" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B83" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B84" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C84" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B85" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C85" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>529</v>
+      </c>
+      <c r="B86" t="s">
+        <v>530</v>
+      </c>
+      <c r="C86" t="s">
         <v>531</v>
-      </c>
-      <c r="B86" t="s">
-        <v>532</v>
-      </c>
-      <c r="C86" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
